--- a/biology/Médecine/La_Permanence/La_Permanence.xlsx
+++ b/biology/Médecine/La_Permanence/La_Permanence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Permanence est un documentaire français réalisé par Alice Diop et sorti en 2016.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le docteur Geeraert, médecin généraliste, installé dans un bureau de l'hôpital Avicenne, à Bobigny, consulte deux fois par semaine et sans rendez-vous « des migrants dont les maux de tête ou de dos, comme les insomnies, trouvent le plus souvent leur origine dans la douleur de l'exil »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur Geeraert, médecin généraliste, installé dans un bureau de l'hôpital Avicenne, à Bobigny, consulte deux fois par semaine et sans rendez-vous « des migrants dont les maux de tête ou de dos, comme les insomnies, trouvent le plus souvent leur origine dans la douleur de l'exil ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Permanence
 Réalisation : Alice Diop
@@ -554,7 +570,7 @@
 Pays  :  France
 Genre : documentaire
 Durée : 96 minutes
-Date de sortie : France - 24 mars 2016[2]</t>
+Date de sortie : France - 24 mars 2016</t>
         </is>
       </c>
     </row>
@@ -584,14 +600,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Récompenses
-Prix de l'Institut français Louis-Marcorelles au festival Cinéma du réel 2016
-Étoile de la SCAM 2017
-Sélections
-Festival des cinémas d'Afrique du pays d'Apt 2016
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix de l'Institut français Louis-Marcorelles au festival Cinéma du réel 2016
+Étoile de la SCAM 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Permanence</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Permanence</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Festival des cinémas d'Afrique du pays d'Apt 2016
 Festival Les Étoiles du documentaire 2017
 Festival Filmer le travail 2017
-Festival international de cinéma de Marseille 2017[3]</t>
+Festival international de cinéma de Marseille 2017</t>
         </is>
       </c>
     </row>
